--- a/workinglog/倪晓兵工作日志.xlsx
+++ b/workinglog/倪晓兵工作日志.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,35 @@
   </si>
   <si>
     <t>持续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌芝注册，启动认证：
+畅畅生活
+畅畅生活+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布展：
+倪晓兵、詹贝利、朱小杰、王吉松
+讲解：
+凌芝、郑婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐升贤，周五下班前印刷完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方已给，整理协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方已给</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经确认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -223,24 +252,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,7 +602,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -538,47 +615,47 @@
     <col min="6" max="6" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="2">
         <v>20180312</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="2">
         <v>20180318</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -590,11 +667,11 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:6" ht="78" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
@@ -602,13 +679,15 @@
         <v>25</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
@@ -616,13 +695,15 @@
         <v>26</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
@@ -632,11 +713,11 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
@@ -646,11 +727,11 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -662,11 +743,11 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
@@ -676,11 +757,11 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    <row r="10" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -688,13 +769,15 @@
         <v>25</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="F10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
@@ -704,11 +787,11 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
@@ -718,11 +801,11 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -732,13 +815,15 @@
         <v>25</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+      <c r="F13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
@@ -746,13 +831,15 @@
         <v>26</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+      <c r="F14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
@@ -760,13 +847,15 @@
         <v>31</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+      <c r="F15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
@@ -774,13 +863,15 @@
         <v>32</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+      <c r="F16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
@@ -790,11 +881,11 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="1" t="s">
         <v>23</v>
       </c>
@@ -805,6 +896,11 @@
       <c r="F18" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B3:B7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
